--- a/results.xlsx
+++ b/results.xlsx
@@ -61,8 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -106,7 +107,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -160,9 +161,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -170,8 +182,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -198,6 +211,10 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -224,6 +241,10 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,7 +371,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$3:$I$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.392</c:v>
@@ -419,6 +440,29 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.170266181924475"/>
+                  <c:y val="-0.00547636788368206"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$E$3:$E$19</c:f>
@@ -483,7 +527,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$3:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.944</c:v>
@@ -552,6 +596,29 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.168719391514576"/>
+                  <c:y val="-0.0110582596612764"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$E$3:$E$19</c:f>
@@ -616,7 +683,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$3:$K$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
@@ -750,7 +817,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -761,7 +828,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.773250269470376"/>
+          <c:y val="0.070569506816763"/>
+          <c:w val="0.202001083971232"/>
+          <c:h val="0.25681474917937"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -832,7 +908,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$3:$I$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.392</c:v>
@@ -903,7 +979,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$3:$J$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.944</c:v>
@@ -974,7 +1050,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$3:$K$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
@@ -1114,7 +1190,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1262,7 +1338,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$3:$I$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.392</c:v>
@@ -1395,7 +1471,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$3:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.944</c:v>
@@ -1528,7 +1604,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$3:$K$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
@@ -1663,7 +1739,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1808,7 +1884,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$3:$I$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.392</c:v>
@@ -1941,7 +2017,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$3:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.944</c:v>
@@ -2074,7 +2150,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$3:$K$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
@@ -2204,7 +2280,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2241,9 +2317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2679,60 +2755,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="30">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2749,7 +2829,7 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>C3/B3^2</f>
         <v>0.1111111111111111</v>
       </c>
@@ -2762,15 +2842,15 @@
       <c r="H3">
         <v>1000</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <f>F3/D3</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <f>G3/D3</f>
         <v>0.94399999999999995</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <f>H3/D3</f>
         <v>1</v>
       </c>
@@ -2786,7 +2866,7 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E20" si="0">C4/B4^2</f>
         <v>0.22222222222222221</v>
       </c>
@@ -2799,15 +2879,15 @@
       <c r="H4">
         <v>731</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <f>F4/D4</f>
         <v>0.188</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <f>G4/D4</f>
         <v>0.60599999999999998</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <f>H4/D4</f>
         <v>0.73099999999999998</v>
       </c>
@@ -2823,7 +2903,7 @@
       <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -2836,15 +2916,15 @@
       <c r="H5">
         <v>957</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <f>F5/D5</f>
         <v>0.185</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <f>G5/D5</f>
         <v>0.86099999999999999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <f>H5/D5</f>
         <v>0.95699999999999996</v>
       </c>
@@ -2860,7 +2940,7 @@
       <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
@@ -2873,15 +2953,15 @@
       <c r="H6">
         <v>844</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f t="shared" ref="I6:I14" si="1">F6/D6</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <f t="shared" ref="J6:J14" si="2">G6/D6</f>
         <v>0.622</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <f t="shared" ref="K6:K14" si="3">H6/D6</f>
         <v>0.84399999999999997</v>
       </c>
@@ -2897,7 +2977,7 @@
       <c r="D7">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2910,15 +2990,15 @@
       <c r="H7">
         <v>511</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>0.41</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>0.51100000000000001</v>
       </c>
@@ -2934,7 +3014,7 @@
       <c r="D8">
         <v>1000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -2947,15 +3027,15 @@
       <c r="H8">
         <v>763</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0.74099999999999999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>0.76300000000000001</v>
       </c>
@@ -2971,7 +3051,7 @@
       <c r="D9">
         <v>1000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -2984,15 +3064,15 @@
       <c r="H9">
         <v>837</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0.872</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>0.83699999999999997</v>
       </c>
@@ -3008,7 +3088,7 @@
       <c r="D10">
         <v>1000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3021,15 +3101,15 @@
       <c r="H10">
         <v>844</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <f t="shared" ref="I10:I13" si="4">F10/D10</f>
         <v>1E-3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <f t="shared" ref="J10:J13" si="5">G10/D10</f>
         <v>0.89900000000000002</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <f t="shared" ref="K10:K13" si="6">H10/D10</f>
         <v>0.84399999999999997</v>
       </c>
@@ -3047,7 +3127,7 @@
       <c r="D11">
         <v>1000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3060,15 +3140,15 @@
       <c r="H11">
         <v>945</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
         <v>0.98599999999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <f t="shared" si="6"/>
         <v>0.94499999999999995</v>
       </c>
@@ -3084,7 +3164,7 @@
       <c r="D12">
         <v>500</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.11834319526627218</v>
       </c>
@@ -3097,15 +3177,15 @@
       <c r="H12">
         <v>389</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
         <v>0.78</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <f t="shared" si="6"/>
         <v>0.77800000000000002</v>
       </c>
@@ -3121,7 +3201,7 @@
       <c r="D13">
         <v>500</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.12755102040816327</v>
       </c>
@@ -3134,15 +3214,15 @@
       <c r="H13">
         <v>388</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
         <v>0.69</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <f t="shared" si="6"/>
         <v>0.77600000000000002</v>
       </c>
@@ -3158,7 +3238,7 @@
       <c r="D14">
         <v>500</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
@@ -3171,15 +3251,15 @@
       <c r="H14">
         <v>355</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <f t="shared" si="3"/>
         <v>0.71</v>
       </c>
@@ -3195,7 +3275,7 @@
       <c r="D15">
         <v>200</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
@@ -3208,15 +3288,15 @@
       <c r="H15">
         <v>133</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <f>F15/D15</f>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <f>G15/D15</f>
         <v>0.41499999999999998</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <f>H15/D15</f>
         <v>0.66500000000000004</v>
       </c>
@@ -3234,7 +3314,7 @@
       <c r="D16">
         <v>500</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>3.4602076124567477E-2</v>
       </c>
@@ -3247,15 +3327,15 @@
       <c r="H16">
         <v>481</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <f>F16/D16</f>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <f>G16/D16</f>
         <v>0.99</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <f>H16/D16</f>
         <v>0.96199999999999997</v>
       </c>
@@ -3271,7 +3351,7 @@
       <c r="D17">
         <v>200</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>6.1728395061728392E-2</v>
       </c>
@@ -3284,15 +3364,15 @@
       <c r="H17">
         <v>190</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <f>F17/D17</f>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <f>G17/D17</f>
         <v>0.97</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <f>H17/D17</f>
         <v>0.95</v>
       </c>
@@ -3308,7 +3388,7 @@
       <c r="D18">
         <v>200</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>9.6952908587257622E-2</v>
       </c>
@@ -3321,20 +3401,21 @@
       <c r="H18">
         <v>164</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <f>F18/D18</f>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <f>G18/D18</f>
         <v>0.81499999999999995</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <f>H18/D18</f>
         <v>0.82</v>
       </c>
     </row>
     <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
       <c r="B19">
         <v>20</v>
       </c>
@@ -3344,7 +3425,7 @@
       <c r="D19">
         <v>200</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -3357,20 +3438,21 @@
       <c r="H19">
         <v>141</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <f>F19/D19</f>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <f>G19/D19</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <f>H19/D19</f>
         <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
       <c r="B20">
         <v>20</v>
       </c>
@@ -3380,7 +3462,7 @@
       <c r="D20">
         <v>100</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -3393,21 +3475,25 @@
       <c r="H20">
         <v>71</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <f>F20/D20</f>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <f>G20/D20</f>
         <v>0.45</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <f>H20/D20</f>
         <v>0.71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:B2"/>
